--- a/Test Runs/alpha_1_beta_0.5_gamma_0_Run_10.xlsx
+++ b/Test Runs/alpha_1_beta_0.5_gamma_0_Run_10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Optmization_Formulation\EquitableRetirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C7C8D1-E927-43F2-802F-8A228684AD1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D01AAD-FFAF-402B-9328-141CF698A5C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13536" yWindow="1884" windowWidth="8796" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,63 +37,63 @@
     <t>Cap retire</t>
   </si>
   <si>
-    <t>[[ 0. 10.  0.]
+    <t>[[10.  0.  0.]
  [ 0.  0.  0.]]</t>
   </si>
   <si>
     <t>Cap Invest</t>
   </si>
   <si>
-    <t>[[[ 0.   13.33  0.  ]
-  [ 0.    0.   -0.  ]]]</t>
+    <t>[[[20.  0.  0.]
+  [ 0.  0.  0.]]]</t>
   </si>
   <si>
     <t>RE Cap</t>
   </si>
   <si>
-    <t>[[[ 0.   13.33 13.33]
-  [ 0.    0.   -0.  ]]]</t>
+    <t>[[[20. 20. 20.]
+  [ 0.  0.  0.]]]</t>
   </si>
   <si>
     <t>Re Gen</t>
   </si>
   <si>
-    <t>[[[ 0. 10. 10.]
-  [ 0.  0. -0.]]]</t>
+    <t>[[[10. 10. 10.]
+  [ 0.  0.  0.]]]</t>
   </si>
   <si>
     <t>Coal Gen</t>
   </si>
   <si>
-    <t>[[10.  0.  0.]
+    <t>[[ 0.  0.  0.]
  [10. 10. 10.]]</t>
   </si>
   <si>
     <t>RE Invest</t>
   </si>
   <si>
-    <t>[[[0. 1. 0.]
+    <t>[[[1. 0. 0.]
   [0. 0. 0.]]]</t>
   </si>
   <si>
     <t>Coal Retire</t>
   </si>
   <si>
-    <t>[[0. 1. 0.]
+    <t>[[1. 0. 0.]
  [0. 0. 0.]]</t>
   </si>
   <si>
     <t>RE online</t>
   </si>
   <si>
-    <t>[[[0. 1. 1.]
+    <t>[[[1. 1. 1.]
   [0. 0. 0.]]]</t>
   </si>
   <si>
     <t>Coal online</t>
   </si>
   <si>
-    <t>[[1. 0. 0.]
+    <t>[[0. 0. 0.]
  [1. 1. 1.]]</t>
   </si>
   <si>
@@ -466,7 +466,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>368.33</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
